--- a/Script/excel-export.xlsx
+++ b/Script/excel-export.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,30 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda\Documents\NSS_Data_An\projects\app-trader-a_pizza_my_heart\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{17793898-71E7-4E36-A69A-44CAF51FC733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A0565-9B46-4BE3-9097-94E90E62CA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial_pull" sheetId="1" r:id="rId1"/>
     <sheet name="top_ten" sheetId="2" r:id="rId2"/>
     <sheet name="pivot_c_rating" sheetId="5" r:id="rId3"/>
     <sheet name="pivot_genre" sheetId="6" r:id="rId4"/>
+    <sheet name="icons" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pivot_c_rating!$A$18:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pivot_c_rating!$A$3:$B$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pivot_genre!$A$20:$B$26</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId5"/>
-    <pivotCache cacheId="22" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="364">
   <si>
     <t>names_of_apps</t>
   </si>
@@ -1087,13 +1098,49 @@
   </si>
   <si>
     <t>Count of apple_content_rating</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Domino’s Pizza USA</t>
+  </si>
+  <si>
+    <t>Pewdiepie’s Tuber Simulator</t>
+  </si>
+  <si>
+    <t>Egg,INC.</t>
+  </si>
+  <si>
+    <t>The Guardian</t>
+  </si>
+  <si>
+    <t>Bible</t>
+  </si>
+  <si>
+    <t>Clash of Clans</t>
+  </si>
+  <si>
+    <t>Clash Royale</t>
+  </si>
+  <si>
+    <t>Geometry Dash Lite</t>
+  </si>
+  <si>
+    <t>Hill Climb Racing 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,8 +1275,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1419,6 +1473,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1668,7 +1728,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1687,6 +1747,11 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1734,6 +1799,13 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1756,13 +1828,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2088,13 +2153,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12+</c:v>
+                  <c:v>4+</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4+</c:v>
+                  <c:v>9+</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9+</c:v>
+                  <c:v>12+</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2106,13 +2171,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5886,8 +5951,943 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5121" name="AutoShape 1" descr="Cover art">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F0D108-1002-4AAE-A41B-26E9BDFEC616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4480560" y="2872740"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="AutoShape 2" descr="Cover art">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4500FBAF-D579-4400-B5CE-8A716A5D1272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4480560" y="2689860"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5125" name="AutoShape 5" descr="Cover art">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90963ED-A51A-4E33-921E-64807FC55DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4480560" y="3604260"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5127" name="AutoShape 7" descr="Cover art">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DB4764-9C6F-4B62-AA88-4498D04D9626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4480560" y="4701540"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="‎Clash Royale on the App Store">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4860E1C9-E5D3-4D7F-9356-1E5381B009AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30323" t="12745" r="30839" b="12990"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5615940" y="2522219"/>
+          <a:ext cx="1055370" cy="1062383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Egg Inc Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC80965-A5A7-4DA3-A8EB-70C7F6E71B59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4370070" y="3741420"/>
+          <a:ext cx="1074420" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="The Guardian - Download The Guardian App for Android APK">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23177FA3-C2C9-4CDF-BF2A-F4D74AE5E377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4370070" y="5017770"/>
+          <a:ext cx="1093470" cy="1093470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="Hill Climb Racing 2 1.42.1 for Android - Download">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0FD8D9-14E2-4B9B-9EC0-726E9FA1242D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5642610" y="5025390"/>
+          <a:ext cx="1070610" cy="1070610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="Geometry Dash Lite | Geometry Dash Wiki | Fandom">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80951561-ED62-46EA-B9F9-D759E3E20007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5627370" y="3749040"/>
+          <a:ext cx="1074420" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830897F5-E749-48D8-A156-EFE3FA87B1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4373880" y="1356360"/>
+          <a:ext cx="1009650" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="PewDiePie's Tuber Simulator 1.49.0 (MOD, Unlimited everything) Download for  android (Dengan gambar)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B689DF-0CEE-49A3-B841-4C48BB287080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4370070" y="2514600"/>
+          <a:ext cx="1040130" cy="1040130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525781</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="ASOS - Apps on Google Play">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F6F912-6D8D-498B-88EB-C39E65E63800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4366261" y="171451"/>
+          <a:ext cx="1036319" cy="1036319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="YouVersion Bible App announces most popular Bible verse of 2018">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FEBACD-F010-4A01-AEB7-FA8D08126C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5593080" y="171450"/>
+          <a:ext cx="1028700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="Clash of Clans: A guide for parents">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD25A4E-0234-471A-ADF9-FEA3B0598710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5623560" y="1363980"/>
+          <a:ext cx="1021080" cy="1021080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Brenda" refreshedDate="44254.549950925924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Brenda" refreshedDate="44254.549950925924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table13"/>
   </cacheSource>
@@ -5962,7 +6962,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Brenda" refreshedDate="44254.564359374999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="270">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Brenda" refreshedDate="44254.564359374999" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="270" xr:uid="{00000000-000A-0000-FFFF-FFFF16000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
@@ -10302,7 +11302,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A18:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10386,7 +11386,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -10408,13 +11408,22 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
       <items count="4">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -10429,13 +11438,13 @@
   </rowFields>
   <rowItems count="4">
     <i>
-      <x/>
-    </i>
-    <i>
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -10642,7 +11651,95 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of apple_genre" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A20:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10752,133 +11849,45 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of apple_genre" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M271" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:M271"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:M271" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:M271" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="names_of_apps"/>
-    <tableColumn id="2" name="apple_price"/>
-    <tableColumn id="3" name="google_price"/>
-    <tableColumn id="4" name="apple_rating"/>
-    <tableColumn id="5" name="google_rating"/>
-    <tableColumn id="6" name="apple_content_rating"/>
-    <tableColumn id="7" name="google_content_rating"/>
-    <tableColumn id="8" name="apple_genre"/>
-    <tableColumn id="9" name="google_genre"/>
-    <tableColumn id="10" name="google_install_count"/>
-    <tableColumn id="11" name="net_income_by_apple_rating"/>
-    <tableColumn id="12" name="net_income_by_google_rating"/>
-    <tableColumn id="13" name="avg_net_income"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="names_of_apps"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="apple_price"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="google_price"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="apple_rating"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="google_rating"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="apple_content_rating"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="google_content_rating"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="apple_genre"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="google_genre"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="google_install_count"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="net_income_by_apple_rating"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="net_income_by_google_rating"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="avg_net_income"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:M11" totalsRowShown="0">
-  <autoFilter ref="A1:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:M11" totalsRowShown="0">
+  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="names_of_apps"/>
-    <tableColumn id="2" name="apple_price"/>
-    <tableColumn id="3" name="google_price"/>
-    <tableColumn id="4" name="apple_rating"/>
-    <tableColumn id="5" name="google_rating"/>
-    <tableColumn id="6" name="apple_content_rating"/>
-    <tableColumn id="7" name="google_content_rating"/>
-    <tableColumn id="8" name="apple_genre"/>
-    <tableColumn id="9" name="google_genre"/>
-    <tableColumn id="10" name="google_install_count"/>
-    <tableColumn id="11" name="net_income_by_apple_rating"/>
-    <tableColumn id="12" name="net_income_by_google_rating"/>
-    <tableColumn id="13" name="avg_net_income"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="names_of_apps"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="apple_price"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="google_price"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="apple_rating"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="google_rating"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="apple_content_rating"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="google_content_rating"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="apple_genre"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="google_genre"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="google_install_count"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="net_income_by_apple_rating"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="net_income_by_google_rating"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="avg_net_income"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11180,16 +12189,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M271"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.3125" customWidth="1"/>
+    <col min="1" max="1" width="21.47265625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.9453125" customWidth="1"/>
     <col min="4" max="4" width="12.7890625" customWidth="1"/>
@@ -22324,7 +23333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22802,17 +23811,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.05078125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.05078125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="2.62890625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.20703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.26171875" bestFit="1" customWidth="1"/>
@@ -22834,26 +23843,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -22913,17 +23922,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A18:B23"/>
+  <autoFilter ref="A3:B7" xr:uid="{A7DBDAE5-7601-4599-A4A2-F1D34BE4E7AC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -23046,8 +24055,156 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A20:B26"/>
+  <autoFilter ref="A20:B26" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3513BA7D-80D8-4C61-A0B5-7F0894038763}">
+  <dimension ref="B3:T12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.83984375" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <f>R4/0.5+1</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="18">
+        <f>S4*12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5" s="18">
+        <f t="shared" ref="S5:S9" si="0">R5/0.5+1</f>
+        <v>3</v>
+      </c>
+      <c r="T5" s="18">
+        <f t="shared" ref="T5:T9" si="1">S5*12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="R6" s="18">
+        <v>2</v>
+      </c>
+      <c r="S6" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T6" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="R7" s="18">
+        <v>3</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="R8" s="18">
+        <v>4</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="R9" s="18">
+        <v>5</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Script/excel-export.xlsx
+++ b/Script/excel-export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brenda\Documents\NSS_Data_An\projects\app-trader-a_pizza_my_heart\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A0565-9B46-4BE3-9097-94E90E62CA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934099A4-8C39-4D40-9698-52E8A8E62CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1230" yWindow="378" windowWidth="13020" windowHeight="10848" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial_pull" sheetId="1" r:id="rId1"/>
@@ -11651,94 +11651,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="6">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of apple_genre" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A20:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -11838,6 +11750,94 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of apple_genre" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -24063,10 +24063,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3513BA7D-80D8-4C61-A0B5-7F0894038763}">
-  <dimension ref="B3:T12"/>
+  <dimension ref="B2:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24074,10 +24074,22 @@
     <col min="1" max="16384" width="8.83984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="18" t="s">
         <v>352</v>
       </c>
@@ -24087,11 +24099,16 @@
       <c r="T3" s="18" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="17" t="s">
         <v>355</v>
       </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="18">
         <v>0</v>
       </c>
@@ -24103,27 +24120,49 @@
         <f>S4*12</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U4" s="18">
+        <f>R4/0.125</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="18">
+        <f>(R4/0.5+1)*12</f>
+        <v>12</v>
+      </c>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17" t="s">
         <v>356</v>
       </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
       <c r="R5" s="18">
         <v>1</v>
       </c>
       <c r="S5" s="18">
-        <f t="shared" ref="S5:S9" si="0">R5/0.5+1</f>
+        <f t="shared" ref="S5:U9" si="0">R5/0.5+1</f>
         <v>3</v>
       </c>
       <c r="T5" s="18">
         <f t="shared" ref="T5:T9" si="1">S5*12</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U5" s="18">
+        <f t="shared" ref="U5:U9" si="2">R5/0.125</f>
+        <v>8</v>
+      </c>
+      <c r="V5" s="18">
+        <f t="shared" ref="V5:V9" si="3">(R5/0.5+1)*12</f>
+        <v>36</v>
+      </c>
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="17" t="s">
         <v>357</v>
       </c>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
       <c r="R6" s="18">
         <v>2</v>
       </c>
@@ -24135,11 +24174,22 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U6" s="18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="V6" s="18">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="17" t="s">
         <v>358</v>
       </c>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="18">
         <v>3</v>
       </c>
@@ -24151,11 +24201,22 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7" s="18">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="V7" s="18">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="17" t="s">
         <v>359</v>
       </c>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="18">
         <v>4</v>
       </c>
@@ -24167,11 +24228,22 @@
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U8" s="18">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="V8" s="18">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="17" t="s">
         <v>360</v>
       </c>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
       <c r="R9" s="18">
         <v>5</v>
       </c>
@@ -24183,21 +24255,43 @@
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U9" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="V9" s="18">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="17" t="s">
         <v>361</v>
       </c>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="17" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" ht="18.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="2:23" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="17" t="s">
         <v>363</v>
       </c>
